--- a/Assets/Editor/Excel/QTConfig.xlsx
+++ b/Assets/Editor/Excel/QTConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48308C-BAE8-4C78-B4FB-9BF24B3DB689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EEE7F0-0CBA-4DF6-A295-33D2375F8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idle</t>
+    <t>123123”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>1123123</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123123</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -776,6 +776,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>123123</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -788,10 +791,10 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -814,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -824,14 +827,14 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+      <c r="C9" s="1">
+        <v>1312311</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -848,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
